--- a/docentes/González Altamirano Victorino Juventino - Estadisticos 2020.xlsx
+++ b/docentes/González Altamirano Victorino Juventino - Estadisticos 2020.xlsx
@@ -1162,7 +1162,7 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1185,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Altamirano Victorino Juventino - Estadisticos 2020.xlsx
+++ b/docentes/González Altamirano Victorino Juventino - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -83,24 +83,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>TEPEPA</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ELELYN IVETH</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1142,52 +1124,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920093</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920183</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/González Altamirano Victorino Juventino - Estadisticos 2020.xlsx
+++ b/docentes/González Altamirano Victorino Juventino - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>ZULEICA RENATA</t>
   </si>
 </sst>
 </file>
@@ -486,19 +504,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>79.48999999999999</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -512,19 +530,19 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>87.8</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -538,19 +556,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -564,19 +582,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>87.18000000000001</v>
+        <v>92.31</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -590,10 +608,10 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>31</v>
@@ -602,7 +620,7 @@
         <v>88.56999999999999</v>
       </c>
       <c r="H6">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -616,19 +634,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>80.56</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -642,19 +660,19 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -710,16 +728,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>64.09999999999999</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -733,16 +754,19 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>82.93000000000001</v>
+      </c>
+      <c r="H3">
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -756,16 +780,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -779,16 +806,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>71.79000000000001</v>
+      </c>
+      <c r="H5">
+        <v>7.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -802,16 +832,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>62.86</v>
+      </c>
+      <c r="H6">
+        <v>7.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -825,16 +858,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>58.33</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -848,16 +884,19 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>36.11</v>
+      </c>
+      <c r="H8">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -913,19 +952,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>79.48999999999999</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -939,19 +978,19 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>87.8</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -965,19 +1004,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -991,19 +1030,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>87.18000000000001</v>
+        <v>92.31</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1017,10 +1056,10 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>31</v>
@@ -1029,7 +1068,7 @@
         <v>88.56999999999999</v>
       </c>
       <c r="H6">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1043,19 +1082,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>80.56</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1069,19 +1108,19 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1124,6 +1163,52 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920287</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/González Altamirano Victorino Juventino - Estadisticos 2020.xlsx
+++ b/docentes/González Altamirano Victorino Juventino - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
   <si>
     <t>Mat</t>
   </si>
@@ -85,16 +85,67 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
     <t>CABRERA</t>
   </si>
   <si>
-    <t>TORRES</t>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>VILLALBA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ZAVALETA</t>
   </si>
   <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
     <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>ADAN</t>
+  </si>
+  <si>
+    <t>EDGAR DANIEL</t>
+  </si>
+  <si>
+    <t>EDGAR RAMSES</t>
+  </si>
+  <si>
+    <t>JOSELIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
   </si>
   <si>
     <t>DANIEL</t>
@@ -1130,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1165,22 +1216,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920287</v>
+        <v>20330051920013</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1188,25 +1239,163 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920379</v>
+        <v>20330051920337</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920381</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920373</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920263</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920379</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Altamirano Victorino Juventino - Estadisticos 2020.xlsx
+++ b/docentes/González Altamirano Victorino Juventino - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>Mat</t>
   </si>
@@ -88,6 +88,15 @@
     <t>FLORES</t>
   </si>
   <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
@@ -109,6 +118,12 @@
     <t>JUAREZ</t>
   </si>
   <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
     <t>VILLALBA</t>
   </si>
   <si>
@@ -131,6 +146,15 @@
   </si>
   <si>
     <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>GABRIEL JOSUE</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>JOHAN ALEJANDRO</t>
   </si>
   <si>
     <t>ADAN</t>
@@ -1181,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1222,10 +1246,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1239,22 +1263,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920337</v>
+        <v>20330051920087</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1262,22 +1286,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920381</v>
+        <v>20330051920090</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1285,22 +1309,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920373</v>
+        <v>20330051920093</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1308,22 +1332,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920313</v>
+        <v>20330051920337</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1331,16 +1355,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920263</v>
+        <v>20330051920381</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1349,44 +1373,44 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920287</v>
+        <v>20330051920373</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920379</v>
+        <v>20330051920313</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1395,6 +1419,75 @@
         <v>14</v>
       </c>
       <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920263</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920287</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920379</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
